--- a/yolov3.xlsx
+++ b/yolov3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bomso\bomsoo1\python\GitHub\object_detector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8732C4-ECAB-47FD-8095-DB55FD7CF71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AA497E-1BDA-4E9B-91B4-4AA50D471CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="634" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,7 @@
     <t>yolo_250331_BASE_ADAM_CosineLR200_decay0 @ bomsoo.brad.kim</t>
   </si>
   <si>
-    <t>yolo_250331_BASE_ADAM_CosineLR200 @ abstra</t>
+    <t>yolo_250331_BASE_ADAM_CosineLR200 @ abstra (ver 5)</t>
   </si>
 </sst>
 </file>
@@ -1757,6 +1757,33 @@
                 <c:pt idx="189">
                   <c:v>0.47239500000000001</c:v>
                 </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.47417199999999998</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.47339700000000001</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.47289999999999999</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.47221200000000002</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.47425099999999998</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.47302300000000003</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.474026</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.47367199999999998</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.472528</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2050,6 +2077,36 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>0.384295</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.38600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.38416600000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.37981700000000002</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.38475700000000002</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.37563000000000002</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.369199</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.389627</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.38434699999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.38304199999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.389905</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3676,10 +3733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A544011D-AECB-4EC4-8624-29B29CD28B11}">
-  <dimension ref="A1:AM193"/>
+  <dimension ref="A1:AM203"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+      <selection activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12450,6 +12507,27 @@
       <c r="W84">
         <v>0.44942599999999999</v>
       </c>
+      <c r="Y84">
+        <v>80</v>
+      </c>
+      <c r="Z84">
+        <v>1</v>
+      </c>
+      <c r="AA84">
+        <v>7.2999999999999999E-5</v>
+      </c>
+      <c r="AB84" s="1">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="AC84">
+        <v>0.42495899999999998</v>
+      </c>
+      <c r="AD84">
+        <v>0.48467500000000002</v>
+      </c>
+      <c r="AE84">
+        <v>0.44418999999999997</v>
+      </c>
       <c r="AG84">
         <v>80</v>
       </c>
@@ -12536,6 +12614,27 @@
       <c r="W85">
         <v>0.45662700000000001</v>
       </c>
+      <c r="Y85">
+        <v>81</v>
+      </c>
+      <c r="Z85">
+        <v>2</v>
+      </c>
+      <c r="AA85">
+        <v>7.2999999999999999E-5</v>
+      </c>
+      <c r="AB85" s="1">
+        <v>0.38416600000000001</v>
+      </c>
+      <c r="AC85">
+        <v>0.44719700000000001</v>
+      </c>
+      <c r="AD85">
+        <v>0.47317599999999999</v>
+      </c>
+      <c r="AE85">
+        <v>0.449992</v>
+      </c>
       <c r="AG85">
         <v>81</v>
       </c>
@@ -12622,6 +12721,27 @@
       <c r="W86">
         <v>0.45931699999999998</v>
       </c>
+      <c r="Y86">
+        <v>82</v>
+      </c>
+      <c r="Z86">
+        <v>3</v>
+      </c>
+      <c r="AA86">
+        <v>7.2999999999999999E-5</v>
+      </c>
+      <c r="AB86" s="1">
+        <v>0.37981700000000002</v>
+      </c>
+      <c r="AC86">
+        <v>0.44259500000000002</v>
+      </c>
+      <c r="AD86">
+        <v>0.470802</v>
+      </c>
+      <c r="AE86">
+        <v>0.445969</v>
+      </c>
       <c r="AG86">
         <v>82</v>
       </c>
@@ -12708,6 +12828,27 @@
       <c r="W87">
         <v>0.45025100000000001</v>
       </c>
+      <c r="Y87">
+        <v>83</v>
+      </c>
+      <c r="Z87">
+        <v>4</v>
+      </c>
+      <c r="AA87">
+        <v>7.2000000000000002E-5</v>
+      </c>
+      <c r="AB87" s="1">
+        <v>0.38475700000000002</v>
+      </c>
+      <c r="AC87">
+        <v>0.46246599999999999</v>
+      </c>
+      <c r="AD87">
+        <v>0.469779</v>
+      </c>
+      <c r="AE87">
+        <v>0.45790599999999998</v>
+      </c>
       <c r="AG87">
         <v>83</v>
       </c>
@@ -12794,6 +12935,27 @@
       <c r="W88">
         <v>0.456762</v>
       </c>
+      <c r="Y88">
+        <v>84</v>
+      </c>
+      <c r="Z88">
+        <v>5</v>
+      </c>
+      <c r="AA88">
+        <v>7.2000000000000002E-5</v>
+      </c>
+      <c r="AB88" s="1">
+        <v>0.37563000000000002</v>
+      </c>
+      <c r="AC88">
+        <v>0.46361200000000002</v>
+      </c>
+      <c r="AD88">
+        <v>0.46055699999999999</v>
+      </c>
+      <c r="AE88">
+        <v>0.45261400000000002</v>
+      </c>
       <c r="AG88">
         <v>84</v>
       </c>
@@ -12880,6 +13042,27 @@
       <c r="W89">
         <v>0.45773200000000003</v>
       </c>
+      <c r="Y89">
+        <v>85</v>
+      </c>
+      <c r="Z89">
+        <v>6</v>
+      </c>
+      <c r="AA89">
+        <v>7.2000000000000002E-5</v>
+      </c>
+      <c r="AB89" s="1">
+        <v>0.369199</v>
+      </c>
+      <c r="AC89">
+        <v>0.44052000000000002</v>
+      </c>
+      <c r="AD89">
+        <v>0.462395</v>
+      </c>
+      <c r="AE89">
+        <v>0.43627500000000002</v>
+      </c>
       <c r="AG89">
         <v>85</v>
       </c>
@@ -12966,6 +13149,27 @@
       <c r="W90">
         <v>0.45234400000000002</v>
       </c>
+      <c r="Y90">
+        <v>86</v>
+      </c>
+      <c r="Z90">
+        <v>7</v>
+      </c>
+      <c r="AA90">
+        <v>7.1000000000000005E-5</v>
+      </c>
+      <c r="AB90" s="1">
+        <v>0.389627</v>
+      </c>
+      <c r="AC90">
+        <v>0.43968099999999999</v>
+      </c>
+      <c r="AD90">
+        <v>0.48176000000000002</v>
+      </c>
+      <c r="AE90">
+        <v>0.44914700000000002</v>
+      </c>
       <c r="AG90">
         <v>86</v>
       </c>
@@ -13052,6 +13256,27 @@
       <c r="W91">
         <v>0.45272099999999998</v>
       </c>
+      <c r="Y91">
+        <v>87</v>
+      </c>
+      <c r="Z91">
+        <v>8</v>
+      </c>
+      <c r="AA91">
+        <v>7.1000000000000005E-5</v>
+      </c>
+      <c r="AB91" s="1">
+        <v>0.38434699999999999</v>
+      </c>
+      <c r="AC91">
+        <v>0.42860599999999999</v>
+      </c>
+      <c r="AD91">
+        <v>0.479742</v>
+      </c>
+      <c r="AE91">
+        <v>0.44307999999999997</v>
+      </c>
       <c r="AG91">
         <v>87</v>
       </c>
@@ -13138,6 +13363,27 @@
       <c r="W92">
         <v>0.460503</v>
       </c>
+      <c r="Y92">
+        <v>88</v>
+      </c>
+      <c r="Z92">
+        <v>9</v>
+      </c>
+      <c r="AA92">
+        <v>7.1000000000000005E-5</v>
+      </c>
+      <c r="AB92" s="1">
+        <v>0.38304199999999999</v>
+      </c>
+      <c r="AC92">
+        <v>0.43176900000000001</v>
+      </c>
+      <c r="AD92">
+        <v>0.476211</v>
+      </c>
+      <c r="AE92">
+        <v>0.44256200000000001</v>
+      </c>
       <c r="AG92">
         <v>88</v>
       </c>
@@ -13224,6 +13470,27 @@
       <c r="W93">
         <v>0.44466600000000001</v>
       </c>
+      <c r="Y93">
+        <v>89</v>
+      </c>
+      <c r="Z93">
+        <v>10</v>
+      </c>
+      <c r="AA93">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="AB93" s="1">
+        <v>0.389905</v>
+      </c>
+      <c r="AC93">
+        <v>0.43036999999999997</v>
+      </c>
+      <c r="AD93">
+        <v>0.48317599999999999</v>
+      </c>
+      <c r="AE93">
+        <v>0.44857599999999997</v>
+      </c>
       <c r="AG93">
         <v>89</v>
       </c>
@@ -19324,6 +19591,236 @@
       </c>
       <c r="W193">
         <v>0.51490800000000003</v>
+      </c>
+    </row>
+    <row r="194" spans="17:23">
+      <c r="Q194">
+        <v>190</v>
+      </c>
+      <c r="R194">
+        <v>1</v>
+      </c>
+      <c r="S194">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="T194" s="1">
+        <v>0.47417199999999998</v>
+      </c>
+      <c r="U194">
+        <v>0.46731899999999998</v>
+      </c>
+      <c r="V194">
+        <v>0.57046799999999998</v>
+      </c>
+      <c r="W194">
+        <v>0.51044900000000004</v>
+      </c>
+    </row>
+    <row r="195" spans="17:23">
+      <c r="Q195">
+        <v>191</v>
+      </c>
+      <c r="R195">
+        <v>2</v>
+      </c>
+      <c r="S195">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="T195" s="1">
+        <v>0.47339700000000001</v>
+      </c>
+      <c r="U195">
+        <v>0.47871000000000002</v>
+      </c>
+      <c r="V195">
+        <v>0.56484500000000004</v>
+      </c>
+      <c r="W195">
+        <v>0.51519400000000004</v>
+      </c>
+    </row>
+    <row r="196" spans="17:23">
+      <c r="Q196">
+        <v>192</v>
+      </c>
+      <c r="R196">
+        <v>3</v>
+      </c>
+      <c r="S196">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="T196" s="1">
+        <v>0.47289999999999999</v>
+      </c>
+      <c r="U196">
+        <v>0.47175899999999998</v>
+      </c>
+      <c r="V196">
+        <v>0.56616100000000003</v>
+      </c>
+      <c r="W196">
+        <v>0.511818</v>
+      </c>
+    </row>
+    <row r="197" spans="17:23">
+      <c r="Q197">
+        <v>193</v>
+      </c>
+      <c r="R197">
+        <v>4</v>
+      </c>
+      <c r="S197">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="T197" s="1">
+        <v>0.47221200000000002</v>
+      </c>
+      <c r="U197">
+        <v>0.47563800000000001</v>
+      </c>
+      <c r="V197">
+        <v>0.56506199999999995</v>
+      </c>
+      <c r="W197">
+        <v>0.513432</v>
+      </c>
+    </row>
+    <row r="198" spans="17:23">
+      <c r="Q198">
+        <v>194</v>
+      </c>
+      <c r="R198">
+        <v>5</v>
+      </c>
+      <c r="S198">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="T198" s="1">
+        <v>0.47425099999999998</v>
+      </c>
+      <c r="U198">
+        <v>0.46709099999999998</v>
+      </c>
+      <c r="V198">
+        <v>0.56794500000000003</v>
+      </c>
+      <c r="W198">
+        <v>0.510019</v>
+      </c>
+    </row>
+    <row r="199" spans="17:23">
+      <c r="Q199">
+        <v>195</v>
+      </c>
+      <c r="R199">
+        <v>6</v>
+      </c>
+      <c r="S199">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="T199" s="1">
+        <v>0.47302300000000003</v>
+      </c>
+      <c r="U199">
+        <v>0.477468</v>
+      </c>
+      <c r="V199">
+        <v>0.56533199999999995</v>
+      </c>
+      <c r="W199">
+        <v>0.514598</v>
+      </c>
+    </row>
+    <row r="200" spans="17:23">
+      <c r="Q200">
+        <v>196</v>
+      </c>
+      <c r="R200">
+        <v>7</v>
+      </c>
+      <c r="S200">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="T200" s="1">
+        <v>0.474026</v>
+      </c>
+      <c r="U200">
+        <v>0.47378599999999998</v>
+      </c>
+      <c r="V200">
+        <v>0.56614399999999998</v>
+      </c>
+      <c r="W200">
+        <v>0.51296900000000001</v>
+      </c>
+    </row>
+    <row r="201" spans="17:23">
+      <c r="Q201">
+        <v>197</v>
+      </c>
+      <c r="R201">
+        <v>8</v>
+      </c>
+      <c r="S201">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="T201" s="1">
+        <v>0.47367199999999998</v>
+      </c>
+      <c r="U201">
+        <v>0.46737899999999999</v>
+      </c>
+      <c r="V201">
+        <v>0.56785600000000003</v>
+      </c>
+      <c r="W201">
+        <v>0.51000999999999996</v>
+      </c>
+    </row>
+    <row r="202" spans="17:23">
+      <c r="Q202">
+        <v>198</v>
+      </c>
+      <c r="R202">
+        <v>9</v>
+      </c>
+      <c r="S202">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="T202" s="1">
+        <v>0.472528</v>
+      </c>
+      <c r="U202">
+        <v>0.47711999999999999</v>
+      </c>
+      <c r="V202">
+        <v>0.56288400000000005</v>
+      </c>
+      <c r="W202">
+        <v>0.51372200000000001</v>
+      </c>
+    </row>
+    <row r="203" spans="17:23">
+      <c r="Q203">
+        <v>199</v>
+      </c>
+      <c r="R203">
+        <v>10</v>
+      </c>
+      <c r="S203">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="T203" s="1">
+        <v>0.47424100000000002</v>
+      </c>
+      <c r="U203">
+        <v>0.47520800000000002</v>
+      </c>
+      <c r="V203">
+        <v>0.56563300000000005</v>
+      </c>
+      <c r="W203">
+        <v>0.51359200000000005</v>
       </c>
     </row>
   </sheetData>

--- a/yolov3.xlsx
+++ b/yolov3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bomso\bomsoo1\python\GitHub\object_detector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59EC67C8-E991-49B5-BE8B-5C49C1256542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF954D8-2107-4277-ACA0-85795B398E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="634" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="634" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VOC2007" sheetId="21" r:id="rId1"/>
@@ -63,9 +63,6 @@
     <t>lr</t>
   </si>
   <si>
-    <t>yolo_250209_BASE_ADAM (ver5) @bk2717</t>
-  </si>
-  <si>
     <t>default LR</t>
   </si>
   <si>
@@ -76,12 +73,6 @@
   </si>
   <si>
     <t>linearLR</t>
-  </si>
-  <si>
-    <t>yolo_250331_BASE_ADAM_cosineLR @ bbkim2018 (ver 10)</t>
-  </si>
-  <si>
-    <t>yolo_250331_BASE_ADAM_CosineLR200 @ abstra (ver 5)</t>
   </si>
   <si>
     <t>+-------+----------------+---------+</t>
@@ -576,28 +567,37 @@
     <t>---- mAP 0.51342 ----</t>
   </si>
   <si>
-    <t>yolo_250505_VOC2007_CosineLR200 @ abstra</t>
-  </si>
-  <si>
-    <t>yolo_250505_VOC2007_CosineLR200_decay0 @ abstra</t>
-  </si>
-  <si>
     <t>consine LR 200 (decay = 0)</t>
-  </si>
-  <si>
-    <t>yolo_250404_COCO_ADAM_linearLR @ abstra</t>
-  </si>
-  <si>
-    <t>yolo_250509_COCO_Cosine200_decay0 @bk2717</t>
   </si>
   <si>
     <t>consine LR 200 (decay=0)</t>
   </si>
   <si>
-    <t>yolo_250505_VOC2007_CosineLR200_decayOriginal @ abtra</t>
+    <t>consine LR 200 (decay = 0.0001)</t>
   </si>
   <si>
-    <t>consine LR 200 (decay = 0.0001)</t>
+    <t>yolo_250505_VOC2007_CosineLR200_decayOriginal @ a</t>
+  </si>
+  <si>
+    <t>yolo_250505_VOC2007_CosineLR200 @ a</t>
+  </si>
+  <si>
+    <t>yolo_250505_VOC2007_CosineLR200_decay0 @ a</t>
+  </si>
+  <si>
+    <t>yolo_250209_BASE_ADAM (ver5) @ c</t>
+  </si>
+  <si>
+    <t>yolo_250331_BASE_ADAM_CosineLR200 @ a (ver 5)</t>
+  </si>
+  <si>
+    <t>yolo_250404_COCO_ADAM_linearLR @ a</t>
+  </si>
+  <si>
+    <t>yolo_250509_COCO_Cosine200_decay0 @c</t>
+  </si>
+  <si>
+    <t>yolo_250331_BASE_ADAM_cosineLR @ a (ver 10)</t>
   </si>
 </sst>
 </file>
@@ -6503,32 +6503,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3AEA79F-741C-4D41-8475-B0447D3DE3AA}">
   <dimension ref="A1:W133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="2" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -14631,8 +14631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A544011D-AECB-4EC4-8624-29B29CD28B11}">
   <dimension ref="A1:AM303"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AG3" sqref="AG3"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14646,44 +14646,44 @@
   <sheetData>
     <row r="1" spans="1:39" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="T1" s="3">
         <f>MAX(T4:T203)</f>
         <v>0.47560200000000002</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB1" s="3">
         <f>MAX(AB4:AB303)</f>
         <v>0.48037400000000002</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:39" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>180</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>11</v>
+        <v>184</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>12</v>
+        <v>181</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:39">
@@ -31783,427 +31783,427 @@
   <sheetData>
     <row r="1" spans="1:1" ht="16.5">
       <c r="A1" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="16.5">
       <c r="A2" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="16.5">
       <c r="A3" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="16.5">
       <c r="A4" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="16.5">
       <c r="A5" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="16.5">
       <c r="A6" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="16.5">
       <c r="A7" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="16.5">
       <c r="A8" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="16.5">
       <c r="A9" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="16.5">
       <c r="A10" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="16.5">
       <c r="A11" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="16.5">
       <c r="A12" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="16.5">
       <c r="A13" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="16.5">
       <c r="A14" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="16.5">
       <c r="A15" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="16.5">
       <c r="A16" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="16.5">
       <c r="A17" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="16.5">
       <c r="A18" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="16.5">
       <c r="A19" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="16.5">
       <c r="A20" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="16.5">
       <c r="A21" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="16.5">
       <c r="A22" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="16.5">
       <c r="A23" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="16.5">
       <c r="A24" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="16.5">
       <c r="A25" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="16.5">
       <c r="A26" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="16.5">
       <c r="A27" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="16.5">
       <c r="A28" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="16.5">
       <c r="A29" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="16.5">
       <c r="A30" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="16.5">
       <c r="A31" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="16.5">
       <c r="A32" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="16.5">
       <c r="A33" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="16.5">
       <c r="A34" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="16.5">
       <c r="A35" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="16.5">
       <c r="A36" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="16.5">
       <c r="A37" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="16.5">
       <c r="A38" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="16.5">
       <c r="A39" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="16.5">
       <c r="A40" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="16.5">
       <c r="A41" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="16.5">
       <c r="A42" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="16.5">
       <c r="A43" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="16.5">
       <c r="A44" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="16.5">
       <c r="A45" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="16.5">
       <c r="A46" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="16.5">
       <c r="A47" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="16.5">
       <c r="A48" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="16.5">
       <c r="A49" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="16.5">
       <c r="A50" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="16.5">
       <c r="A51" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="16.5">
       <c r="A52" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="16.5">
       <c r="A53" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="16.5">
       <c r="A54" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="16.5">
       <c r="A55" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="16.5">
       <c r="A56" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="16.5">
       <c r="A57" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="16.5">
       <c r="A58" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="16.5">
       <c r="A59" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="16.5">
       <c r="A60" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="16.5">
       <c r="A61" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="16.5">
       <c r="A62" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="16.5">
       <c r="A63" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="16.5">
       <c r="A64" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="16.5">
       <c r="A65" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="16.5">
       <c r="A66" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="16.5">
       <c r="A67" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="16.5">
       <c r="A68" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="16.5">
       <c r="A69" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="16.5">
       <c r="A70" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="16.5">
       <c r="A71" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="16.5">
       <c r="A72" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="16.5">
       <c r="A73" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="16.5">
       <c r="A74" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="16.5">
       <c r="A75" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="16.5">
       <c r="A76" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="16.5">
       <c r="A77" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="16.5">
       <c r="A78" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="16.5">
       <c r="A79" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="16.5">
       <c r="A80" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="16.5">
       <c r="A81" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="16.5">
       <c r="A82" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="16.5">
       <c r="A83" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="16.5">
       <c r="A84" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:1" s="1" customFormat="1" ht="16.5">
       <c r="A85" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -32223,427 +32223,427 @@
   <sheetData>
     <row r="1" spans="1:1" ht="16.5">
       <c r="A1" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="16.5">
       <c r="A2" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="16.5">
       <c r="A3" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="16.5">
       <c r="A4" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="16.5">
       <c r="A5" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="16.5">
       <c r="A6" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="16.5">
       <c r="A7" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="16.5">
       <c r="A8" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="16.5">
       <c r="A9" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="16.5">
       <c r="A10" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="16.5">
       <c r="A11" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="16.5">
       <c r="A12" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="16.5">
       <c r="A13" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="16.5">
       <c r="A14" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="16.5">
       <c r="A15" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="16.5">
       <c r="A16" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="16.5">
       <c r="A17" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="16.5">
       <c r="A18" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="16.5">
       <c r="A19" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="16.5">
       <c r="A20" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="16.5">
       <c r="A21" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="16.5">
       <c r="A22" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="16.5">
       <c r="A23" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="16.5">
       <c r="A24" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="16.5">
       <c r="A25" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="16.5">
       <c r="A26" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="16.5">
       <c r="A27" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="16.5">
       <c r="A28" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="16.5">
       <c r="A29" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="16.5">
       <c r="A30" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="16.5">
       <c r="A31" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="16.5">
       <c r="A32" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="16.5">
       <c r="A33" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="16.5">
       <c r="A34" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="16.5">
       <c r="A35" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="16.5">
       <c r="A36" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="16.5">
       <c r="A37" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="16.5">
       <c r="A38" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="16.5">
       <c r="A39" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="16.5">
       <c r="A40" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="16.5">
       <c r="A41" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="16.5">
       <c r="A42" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="16.5">
       <c r="A43" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="16.5">
       <c r="A44" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="16.5">
       <c r="A45" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="16.5">
       <c r="A46" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="16.5">
       <c r="A47" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="16.5">
       <c r="A48" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="16.5">
       <c r="A49" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="16.5">
       <c r="A50" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="16.5">
       <c r="A51" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="16.5">
       <c r="A52" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="16.5">
       <c r="A53" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="16.5">
       <c r="A54" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="16.5">
       <c r="A55" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="16.5">
       <c r="A56" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="16.5">
       <c r="A57" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="16.5">
       <c r="A58" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="16.5">
       <c r="A59" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="16.5">
       <c r="A60" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="16.5">
       <c r="A61" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="16.5">
       <c r="A62" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="16.5">
       <c r="A63" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="16.5">
       <c r="A64" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="16.5">
       <c r="A65" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="16.5">
       <c r="A66" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="16.5">
       <c r="A67" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="16.5">
       <c r="A68" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="16.5">
       <c r="A69" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="16.5">
       <c r="A70" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="16.5">
       <c r="A71" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="16.5">
       <c r="A72" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="16.5">
       <c r="A73" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="16.5">
       <c r="A74" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="16.5">
       <c r="A75" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="16.5">
       <c r="A76" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="16.5">
       <c r="A77" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="16.5">
       <c r="A78" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="16.5">
       <c r="A79" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="16.5">
       <c r="A80" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="16.5">
       <c r="A81" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="16.5">
       <c r="A82" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="16.5">
       <c r="A83" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="16.5">
       <c r="A84" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:1" s="1" customFormat="1" ht="16.5">
       <c r="A85" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
